--- a/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliss\OneDrive\Escritorio\Duoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliss\OneDrive\Escritorio\Hostal-donia-clarita\Iteración 1\Análisis de avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="ITERACIÓN 1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -699,18 +699,18 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K2" si="2">C32</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2" s="7">
         <f>G2-L2</f>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2" si="3">H32</f>
@@ -900,18 +900,18 @@
         <v>19</v>
       </c>
       <c r="C12" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1128,11 +1128,11 @@
         <v>31</v>
       </c>
       <c r="C24" s="11">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -1279,11 +1279,11 @@
       <c r="B32" s="1"/>
       <c r="C32" s="9">
         <f t="shared" ref="C32:E32" si="4">SUM(C2:C31)</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="4"/>

--- a/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -699,11 +699,11 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K2" si="2">C32</f>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L2" s="12">
         <v>15</v>
@@ -713,12 +713,11 @@
         <v>48</v>
       </c>
       <c r="N2" s="8">
-        <f t="shared" ref="N2" si="3">H32</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O2" s="8">
         <f>G3-N2</f>
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,18 +725,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>5</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
+        <v>LISTO</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -1090,11 +1089,11 @@
         <v>29</v>
       </c>
       <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
@@ -1128,18 +1127,18 @@
         <v>31</v>
       </c>
       <c r="C24" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1147,18 +1146,18 @@
         <v>32</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,18 +1222,18 @@
         <v>36</v>
       </c>
       <c r="C29" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>PROCESO</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,15 +1277,15 @@
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="9">
-        <f t="shared" ref="C32:E32" si="4">SUM(C2:C31)</f>
-        <v>124</v>
+        <f t="shared" ref="C32:E32" si="3">SUM(C2:C31)</f>
+        <v>137</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>

--- a/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
+++ b/Iteración 1/Análisis de avance/INFO DASHBOARD.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -699,11 +699,11 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K2" si="2">C32</f>
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <v>15</v>
@@ -713,11 +713,11 @@
         <v>48</v>
       </c>
       <c r="N2" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" s="8">
         <f>G3-N2</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,18 +1089,18 @@
         <v>29</v>
       </c>
       <c r="C22" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,18 +1222,18 @@
         <v>36</v>
       </c>
       <c r="C29" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PROCESO</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,18 +1241,18 @@
         <v>37</v>
       </c>
       <c r="C30" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
         <v>5</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1260,29 +1260,29 @@
         <v>38</v>
       </c>
       <c r="C31" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PENDIENTE</v>
+        <v>LISTO</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="9">
         <f t="shared" ref="C32:E32" si="3">SUM(C2:C31)</f>
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="3"/>
